--- a/documents/Materialstückliste_intern.xlsx
+++ b/documents/Materialstückliste_intern.xlsx
@@ -1,89 +1,73 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sven Sautter\Desktop\DHBW\IoT Sensorik\6. Semester\Projekt\Materialbezug\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A834FAD-AD32-42FE-BBC1-9463A80DB75E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11916"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={EEB4C3C9-5B3A-4FF6-8D62-98EAC94BBB28}</author>
     <author>tc={C34326B4-C63B-4E13-8782-623F009A2D52}</author>
     <author>tc={52CE70CF-02CF-4D8B-BD39-8D78ABB7A70F}</author>
   </authors>
   <commentList>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     die drossel ist nur für gase 
 oder?</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="1" shapeId="0">
+    <comment ref="B14" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     keine  led bei reichelt gefunden welche rot grün und gelb kann, nur rot grün und blau
 habe daher eine rot grüne led genommen
-Reply:
+Antwort:
     3mm ok? oder 8 mm</t>
-        </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="2" shapeId="0">
+    <comment ref="B26" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
+        <t>[Kommentarthread]
+Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
+Kommentar:
     abhänig von durchmesser drossel. oder kann man Strohhalme oder so nutzen</t>
-        </r>
       </text>
     </comment>
   </commentList>
@@ -91,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="129">
   <si>
     <t>Materialstückliste</t>
   </si>
@@ -475,17 +459,20 @@
   </si>
   <si>
     <t>https://www.amazon.de/dp/B074RGW2VQ/ref=twister_B07Z6CSD9K?_encoding=UTF8&amp;th=1</t>
+  </si>
+  <si>
+    <t>-K2..-K4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="8" formatCode="#,##0.00\ &quot;€&quot;;[Red]\-#,##0.00\ &quot;€&quot;"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -669,7 +656,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -785,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -794,19 +781,19 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -818,7 +805,7 @@
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Ausgabe" xfId="1" builtinId="21"/>
-    <cellStyle name="Hyperlink" xfId="2"/>
+    <cellStyle name="Hyperlink" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Komma" xfId="4" builtinId="3"/>
     <cellStyle name="Link" xfId="3" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -915,7 +902,7 @@
         <xdr:cNvPr id="4" name="Bild 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5B51238-3A53-4BAB-BD36-BFF72F86A928}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{00000000-0008-0000-0000-000002000000}"/>
@@ -962,7 +949,7 @@
         <xdr:cNvPr id="6" name="Bild 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17440F74-2BF0-4178-A032-7F4DFE06874A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{CCA9FC45-55DE-46B0-802B-9D3F2DBC4CE2}"/>
@@ -1009,7 +996,7 @@
         <xdr:cNvPr id="8" name="Bild 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{232A31F8-7612-4307-8E1D-23214E3F4C06}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{D0E364ED-B1F6-4AA8-A187-34CD659F421A}"/>
@@ -1056,7 +1043,7 @@
         <xdr:cNvPr id="9" name="Grafik 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C882CC31-C6FB-4DE4-8C67-67CDBC389040}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1100,7 +1087,7 @@
         <xdr:cNvPr id="11" name="Bild 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{331FFF8D-C875-42D4-9861-0F9FD76466F5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{33A79BA8-100C-4F1F-9FD5-52DF6BDBDB2C}"/>
@@ -1147,7 +1134,7 @@
         <xdr:cNvPr id="12" name="Bild 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B911C8CB-6036-4D8E-8644-43B9648CD6F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{331FFF8D-C875-42D4-9861-0F9FD76466F5}"/>
@@ -1194,7 +1181,7 @@
         <xdr:cNvPr id="10" name="Bild 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{88FEC8BF-A678-46BB-9EC0-65A2E2214F1D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
             <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
               <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{B911C8CB-6036-4D8E-8644-43B9648CD6F0}"/>
@@ -1238,7 +1225,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Grafik 14"/>
+        <xdr:cNvPr id="15" name="Grafik 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1276,7 +1269,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Grafik 15"/>
+        <xdr:cNvPr id="16" name="Grafik 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1314,7 +1313,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1029" name="AutoShape 5" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAE8AAAA6CAYAAADx2wT0AAAWOklEQVR4Xu1caZAdV3X+bi9vf2/2fTSjXbIly5ssLyGAsQk24A2MXVBlXEUo9jL8ICGGIjhQgLGJU+UiDmUoqJAFjBMwssE4kVPYMgrYRtZmWyNlNJrR7PP2rfv16+6bOqdfj948jaQZS4DspF3jmXmvu1/f737nnO98944ElnlIKVuFEOllXvaGPF0sZ1RSyh4Ak1LKQ0KIrwJ4Sggxs5x7vJHOXS54HwPwD/UASClnhBD3APiZEGLqjQTO6cayLPBc150WQnSd7KZ1QP4CwDEhhDzdA7ye318yeJTrAKROO9gaXFLKrID4BhQ8AuDoGxHI5YD3QQD/2BCykFJCCMFf80cD3xqAHBVCuKedhNfBCUsGz3XdISHE+sXGZNs2JCR0TV98yATmcUaaUsgHFUX5HoDDr2cglwTeiSHrIyFwdPQoUqkUXOkyCxVFxZo1q9HS3HIikD6ItU+VkKaUr18glwoehyxD5koIRaBUymPPnj147rlfIxKOQGgaFFXFyJERlEtFDAwOYtP5m3DB5s3o6upCQNchFGVheNcIOR/lrvuQoijfBbBPCOGc65G7JPD8kCVm0UH57aknH8fevbsZyPb2LuSLZUihYHx8Aq+++io0TYOmKIhEIujo6MT5mzZh69at2LhxA4KBoMfSujzpA7gIkPuFEPa5CORpwZNSJgDkfODo+8T4KL7/ve8iEgmgpaUJAT2ITL6AWLwZQ4eGMXToMGzbgV2twjANmFaFWampKrPwyqv+BNu2bUN/fx+ioTCikQii4cgJ9cYH0nHdR3RF+RaA3wohqucKkEsB72Yp5U+9fKZgdmYaO3Y8hZd+9yIGBvvQlIijYllwpUDJqGByagYv7n4JwXCE859RNmDZFtcLVzowTROO4yIQCKC9sxNbtlyA8zZuRE9XNzrb2tHf04vuzjopSRcKr964kHBdec4AeVrwXNd9XghxmesSeAI7n/0VfrPrOTiuhc7OdgSDQZTKJioVC4WSgVQmi5f27EUgHIWmB2CaFqrVKgIBDRXLhEHguTY0XUOpVIZlV0HZoLm5CasGB7FyYCVWDa7EutWrsX7NWvT39UFVVCabL4v4Z1fS/54Wqvp1ALuEEMYfmpGnBK8+ZCnPkST5t0d/hGOjI4hEg4iEw8gXCkjOpRCORmG7wMT0DIZHjkIoGgKBMKyqzcyJRMLQNBW5fBZmxWTwioUiSqUiAsGgF96VCrO7KdGE3p4edHd0oqujAysHBnHeho1Yu2o1YrEYTxjlTVCFF4KvkVI+LYT4gwJ5OvBuBsAhS+CNjY7g8cd/wtJEVQRSqSTKpRJi8Sb09K/A6NgxUIl8/sU9CIXCCIWjcFyXi0coFKSgg2GUUbEqCAWDFIIo5PN8b5I6hWKBgaAcSRNFeVMP6EhE40jEE2hvbcGmDedh66WX4m1XX80gE23p+gW6XMoXhBBfA/BfQoj874uRpwSPQhZCXOY9msCO/9iO7T//GVKZDDRFRSKaQEd7Bzq6u3FsfBLDIyMIRWIYGTuGqmVzAbFdB4oAVFVhYUL/WVRAWLYoUFWNmVQxTeRzWTiOA9uxmYWU4+hnSgn0ulCAtuZWDPT146+/8EVccelWL5y9tDj/vaEL+r0BeVLwpJQxAAXvwSSKhQwefPAB7H91P3r6+tHb0Q1d0dDXvwL/c/Qo9uzfj3LZRFt7J44dm0A6k0UsnmBtp6oCjuswAxlA6TLrHNth4Oh1YiixjQoJ5ch8Pse5rmpXUTbKcF2HJ4IAD2garrr8Snz5i19CX3c3XGJfTUKdimVSStKPfwvgibPhSZ4KvGsksINOcGwbL+1+Af/+0x/DES56enqAqgtd0RGJxfDMf+/CVHIOqhZEUyKBgwcPQToC4VgUkXCIKUGMUzSFWWfbVShQmX0q6UFN42JAB4HnMpBVuI6LYCgIwzBQLhbhSBe2dEHyUJXA5z93N957482QLr3mDWVBj30KJOs8ydcM5EnBc113B4S4hk7IZTP45S+fwKHhIViOzYk+rAaw6bxNSOYyeGbXr1EwDC4STU3NGBs9hmKphFA4jKAeZDFcrVoIBHRIAWiqhmqlygKb2Ug5qwaeSnpQ06AqCqxqlZmpBwIoF0lHxlEsl5i5uUwWt7/nVnziIx/lwlVfiZeb46SUZFbcu1xPclHwpJRhAGUaDz3ogQP78L3vfwcTMxMwrSpUF7jx+ndj1eqVePqZX+HFffsQicdZ61H7lkylMJdOMYsUUJiRYSBZJFMYRyJRVKs2rEqFK60n5Nx5JhIQxD46SFzrmsaMCgVDkEKiXC7DtR1sWLMW933tayywGTxKrmd4LMfcPRl410BiB40pl8vhse2P4YeP/AsK5QIza+uFl+KG66/HqwdfwY5nnsHEzDT6B1dCUTTMzsxicmqSGUJ5jVo0lhbBIBTKnhKIRGMMZD6fZ8nCxQOCiwKBWc9CApFYyEDSd4Ukk4OqZWHbxZfgs5/+DHp7e3jSuDKdxaMG5P0AfrKYJ7nop1HICohrCLxjkxP41rcfwt59exELh3HphRdhywUXIJ9JY9fzv8Hw2BhcIdDc2sZgvXLgZc5NUhEMFuevahXScaHrAaiqznqPWOk4NrMlFo8hwIK64jGodp2f/3zgWJIIcAV2bRdrV67C17/8FfT2dPOk0POeXfiOzwR7kkJ8Azhu7p7wWX7I+kn+yNgovnjPl5BMJXHL9e/G+oGVyObzeHbXsxgZH0OpaqKpuQVmpcqsy+Zy0AI6j4LAq7UGcB0Hjk2FwGXZous6FI1MVKC/v58BzeYKzCDWeoYnZzRdZ+Apb1Luo4Khairfj6r9k9u3QyUNUwNufkB1HiJoNYDfODvQ1oC8ZDHw3gRgJ5V/euDd+/biq/d+nUXtXR/9OFKTM3j54CvY+eLzCEWjMGyT2TI6Oga7YnHoEOv81QuWEL4YA4UfsdHhF11pc6jGYlEGtFp1vQKh61xpibWBQBB21WZdSSFdsS0EQkFUrSq3b/d++SvobGtboPfmf/E/V/HdLX+4jd9fU6xHTgDPcZwfKYpyu3+7R3/6E/zgn/8JAwMDLEpHDg9j6PBhZI0i9FAQQlUxPTON5NwcgnrAM0Up99QkP4WaMu8iE3DUEQBCpbaKcqDLlZguoJxJ4efpQU92JOJxvpVpmGhtaUOpYiIQDMCqWGwkvPemm3DZxZeiu6sLLc1NdXHmI1cfy1SE/F7ktQNJraCiKNcuAE9KSWXR4j6A86/Agw89hGef24nBwQEUcnkUczl2UchgEwEN6UwayWSSBa+uqgweVUg6iL3cPnE+IqAIVC+EONJq9PQkmtdxkECmLwZd8cKb3ia2NifaoIXCqAoJyzRgmxUkwhF0d3Tjyssvx+ZNG9HX243e3l40N9N6VS1r1BHr+IDPCMhrhRBPN4LHIev3Obl8HtufeBy7nv8tF4GZqWnOMxXTgBYKomyZmJic5IJAA4frAUc5iUKZQnI+2YOqpMtA8Pu0BsRZ3mMinUrXkM7zNRtdT+HL7R2FvFRhUTkJ6qDCGw8E0NvaDqtsIJlOQSgSAwN9eMub/xRXXL4NGzZsQjzRRCqIJdJ89qC5XNgMA/NrUn6iOWV+jJCLs+CM+ZCt3di0TDy2fTueefZZzGZSKJXLELaLYCAAqSoYHjvKLCGGejJEQlEVZowPHEsNVYUiyPnw2jJPj5GW88DlMBbEVm8Vjr7868l6onyoShXSkbBpEuCiWjER01Xc+I6346LNm2BVTUzPTGL/ywcwNj6JtevW4VOfvAvnn38B21c2ySZNZ5tsUUrWv7gAlYUg+iG7oPz4IevFWy3LC+Dhhx/GvgP7MTE9hUK5hFg0yibn9Nwsi2FikT9XXnR6IPosIvDqW6Z6K5/APP479cAqFwkfwHmxTOGr6IBLxQgwjCJaYnFs2bgO117zZgz2D6C9pQWWWUIuM4dcLoNAMIKu7n5E4y0olQ2EI1E0t7Zy10MAqjXZtKA6zwPoh7SfLxfkx+uEEE81gncZuUlsMhIIimDX99FHH8V/Pr0DmWwWRtVCa2c75mbnMDM7M5965wsCM8j7IL9D8BM/h0wNVGImC946g9MHjb57opnSYC05uh4bKWU60oZbreCtl1+J+++9j8Nx5MgRlHNFRMMhaEoVsKlVVFEoGNwjU0HSg2G0tncgmmiCHghCD4YQCIagB4PcX6s15nvsr+mcWsvoYeoDqTT5Ntc88I7j/L2iKJ8g8BiA2juP/PgR/OsPfwiF8pSmstc2Pj7OeY4+lMKLdBaHKiWXuubcB6t+Udxnmg+eD2BdTvfuWWvlqL2jcKXHcWhQigMNNtavWIUbr7sF77rhRrR2elKlVCghOTeDbGqODYhCoYhELIRIKIR0chb5bBaqriHR1ITm1nbEmloQiUahBYMIhMIshYTQQEnIT4rHnUJJz/GCounb/Gf1JJiUlHC8FaqGSv7zJ5/Ew995GKFYBOWKifGJCZRKJR6cP3AGgphRF3L1YJzqZ39tpJGt/jU8mSRfIKAGFJQKWXS0JpCbnEI0EMUn7/o03nHDOxGOx5BoorUPb9ap9ZuenoFr23CdKsqFPCIhHeVSAZlMEnDJ/tIRDsfQ3NKOSKyJXaBoLI5gJMYmx3xN4XzEnc8tQojHGsG7GMDuRvBoYK8ODeGv7r4bejiIqbkZz0WuATcfijVZR21VbTZqZqeX//w8uBiI82FKbrLr5cD5nFeTTFTFpWVh9WA/Nq5bjUhABcw8VMfC2vWbcf27bsDu/fuRaO1C/8BqtHd0sXMNlZSXgjJV42QS2XQGlmWgVMrBKOVQIYfGqSIaCSMcCnNlTjS1IBpPIByJIRhJQA9F6nP2fMjWAplkghey9YPzBzEyOopv/t0D2HNgH4pGCRa5KnWNOoWYwwLXW9D2Q5Wmjc7j+7C28xjhh63/4VwUaitzJ4Bc8wH5GtvBA/fdj6u2bcX0xBhmJo4iFgkiTLlL07k9zBWLmJycwlw6jf7+FTh/02b0DQwiFI4BildlDcPE7Nws0qkUCvksivkMdJVsMjYuoQjP/QmFImjp6EQ01oRINAE9HHkhHEnMhyw//4KQrUPPB4+MyG9883489osneJGGQGATk+SHQprMZYeXXveTOid/nnMPPNZyNVbOg+efT6yi8xuKiIe0YOnjujYioQju+MAduOSiC7Fm1Rp0dXawaMlmUigUctCkQNUoo2qZMKsWJiYnePJ6+/qgqBoSiWY2LyLxZkB4e2rKhoGZmRnMzc2hkM/ApmuNIiS1gJpAUNeg6xrC4ShiTU23nH/xm+dD1gevX0pJG25C9czzqx8NdufOnfjRoz/G9MwMcsUCcsU85z2y3HRq0gkAAqPWbglV4cpIuJGVzh2L4+kfZiF/co2JRNFakWLAa6xmUcsNio1yidZwyLZ3sXJwFTZt3IyLtlyILRdswcbzNiAWjUHaDgqZDEyKDspxxTzSqTkOSyoe9KmkNVta2tHd24eWtnaEYnFQNqWDNCyNj9al89kMqpYBTZAjVOH8qEun7brbPrxgO7FfMEg3rHNd90NCiLsAMJA++wgc8vXS6TQOvPIy9u7diyNHj2I2meS1hnwux+EcDIWg6B6YDmruB0WDc1zPMaIcxVTHjst8/p0cFZ4EAk7yStuK3l50tLVg3dqV0IMaxsePYeiVIRglA2+/9s9w2/tux+pVq6EpOoIBT35UXQeFbAblcglmuYRMepbZa5aKbKLSghL11SRdelYMoqOzm9eZKVaYkWWPkZOTE8jnCcjKoZtuvnVDY84+oQeRkmSoBySAjwghmhvXBSjMkuk070nZ/dJLGB4extT0NJLJOaRo1moyJhgMwZYOHP7yVs64pBDraj0vB7W/B6ZmZtIAVddFe1snPvbRj2DrJZegv6cLmXQSmdwcRkePYP/efWiKRbFh/fraEqRAZ3c/grFmOBBoSjSz80ymaSGfg1Es8iJWxSjBNAwENBV21UI+X2DhHI7G0N3Xz0DSbgeQKKccaZqYnp29c/Xg4A9OC15D0SBwVwK4XUr5OQJysYpJIUxAEiMPHT6EY+PjmJyeQjqTmdd+ECps1+ZFIJUsJ9trzfwCwywn/05VYZXKGOztxwfe/wHcdtttvJelalqQ1AArNqqOgWwyhUI2hbGRYRSKeTYaVq3ZgL5V6+BKhUoYgqEIR4OuUbEQxCCUKOUU8qiYZbhVC1XT5NeLhTwvDZBnSJ1IZ08Ph3iYQlsJtC222nbK7ncxIF3XJbvqM7Q3ebGVKiowQ0ND2L//AA4OHcSRoyNsWXGHYpoeQNQbC8mFwi80tOxIxif5hmFVx513fBC33vIetLQc3+fndT+uZ3uRfrMsGEYJxVIes3OTMI0yiiWD70M7s9q7ukHsV/QgVDUATQ+yL0gRQIwkIHPpJMrFEqqVChcLyyjDsiwuVGSNRWLxQ1e89boTQnZeqizGptO9VvuzgpuklPecbJM3LVwPHTzIeXJs7BiOjR9j03R8aoL7ZKrYnqr3ig0t9ERCYVz9prfgL//is4hHY8dFu/9A/nTzIpFXiGgDERkDxCiSH8nkLLLZFOtl2lVAua21tYOFMHuGvGoX8MwK12H5Qnk7l04hl04zK1VQlyOok7rzLe98zwkhe0bgNbCS/j7jJtd1GUjePtHQbVAeHB0bw/DwEZYRw0eP4OChIe5YMpkMbNqWoSq45cab8aE77uRc5q9nLJjIk8SKlzYl5zGrYsAoF1Es5pBOJZHNpHlBnbqHzq5utHd28VYQYiOZubRrwVMEEpWKiVw6g1wmg2I+B6Vqd2y9+urkYmRactiejon++7UtuO+WUn4BAO9hbgxvEtazs7OYmp7C9OwMDh0+jBd2/449wb/50j1YuWIFs4KLSuO6w5KfmKRNFUa5hFw2DdMsIZWcQzad5rCMxuPo7x9AR2cXgpEw52HKkwHOjwocV6JiGDOxWKz7ZGNf8qMsFbwGRpKdy0D6m8F9+eOfR/mL+lAKcdpFmojFKatByNoO+3rT8gyelvvbUp7lS8Uo10I7g3KpjFA4iN6+Fejo6kI4EmE7S1F0qIr+cSHEt/8o4DUASTtM3yal/Dzt96P35he2a8J40Yc8S+DV35tMWMss877qEm2RS86yG1Mo5BGPx9G3YgXa2jqQaGnujUY7TvpXTWcwl6+Fi941tX1/b3Mc5/Oqql7WyMbXfuflX0kTSAWC2rNiPsvb5si+KpRKM+97/5+fNGTPWsFY/iMfv0JKSdL+Cinl3UKIa87kXmd6LUknkj5kW1XKpY/3r1p/0pA9J8BrCG3aI3PVuQAkgBVCiPFTTcgfJWyXwhApJZW9ba7rfqp+HXkp157pObUdAfR3xQvW2Brve86C18BIajQv/wMCSSmEtpyd8nhdgLcIkJtd1/1wo4F7usEu4/3VQoiR053/ugOvAUjyf7ecTSCXGrLnXME43Uyf6v2aI77Bdd07yZNsNHeXce8lhewbCrwGRi4wd5cJ5JJC9g0L3iJArgZw66k8SbpGSmkKIWgfyimrrH//13XOW0Yo8qmSt2md3Nx1Xfc+VVU/t9T7/p8Cr4GRPpDvqPMkNwohhv4fvKUiUDuvZu7SP3Oy5H//4H8BidqPBJcmxKwAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="1029" name="AutoShape 5" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAE8AAAA6CAYAAADx2wT0AAAWOklEQVR4Xu1caZAdV3X+bi9vf2/2fTSjXbIly5ssLyGAsQk24A2MXVBlXEUo9jL8ICGGIjhQgLGJU+UiDmUoqJAFjBMwssE4kVPYMgrYRtZmWyNlNJrR7PP2rfv16+6bOqdfj948jaQZS4DspF3jmXmvu1/f737nnO98944ElnlIKVuFEOllXvaGPF0sZ1RSyh4Ak1LKQ0KIrwJ4Sggxs5x7vJHOXS54HwPwD/UASClnhBD3APiZEGLqjQTO6cayLPBc150WQnSd7KZ1QP4CwDEhhDzdA7ye318yeJTrAKROO9gaXFLKrID4BhQ8AuDoGxHI5YD3QQD/2BCykFJCCMFf80cD3xqAHBVCuKedhNfBCUsGz3XdISHE+sXGZNs2JCR0TV98yATmcUaaUsgHFUX5HoDDr2cglwTeiSHrIyFwdPQoUqkUXOkyCxVFxZo1q9HS3HIikD6ItU+VkKaUr18glwoehyxD5koIRaBUymPPnj147rlfIxKOQGgaFFXFyJERlEtFDAwOYtP5m3DB5s3o6upCQNchFGVheNcIOR/lrvuQoijfBbBPCOGc65G7JPD8kCVm0UH57aknH8fevbsZyPb2LuSLZUihYHx8Aq+++io0TYOmKIhEIujo6MT5mzZh69at2LhxA4KBoMfSujzpA7gIkPuFEPa5CORpwZNSJgDkfODo+8T4KL7/ve8iEgmgpaUJAT2ITL6AWLwZQ4eGMXToMGzbgV2twjANmFaFWampKrPwyqv+BNu2bUN/fx+ioTCikQii4cgJ9cYH0nHdR3RF+RaA3wohqucKkEsB72Yp5U+9fKZgdmYaO3Y8hZd+9yIGBvvQlIijYllwpUDJqGByagYv7n4JwXCE859RNmDZFtcLVzowTROO4yIQCKC9sxNbtlyA8zZuRE9XNzrb2tHf04vuzjopSRcKr964kHBdec4AeVrwXNd9XghxmesSeAI7n/0VfrPrOTiuhc7OdgSDQZTKJioVC4WSgVQmi5f27EUgHIWmB2CaFqrVKgIBDRXLhEHguTY0XUOpVIZlV0HZoLm5CasGB7FyYCVWDa7EutWrsX7NWvT39UFVVCabL4v4Z1fS/54Wqvp1ALuEEMYfmpGnBK8+ZCnPkST5t0d/hGOjI4hEg4iEw8gXCkjOpRCORmG7wMT0DIZHjkIoGgKBMKyqzcyJRMLQNBW5fBZmxWTwioUiSqUiAsGgF96VCrO7KdGE3p4edHd0oqujAysHBnHeho1Yu2o1YrEYTxjlTVCFF4KvkVI+LYT4gwJ5OvBuBsAhS+CNjY7g8cd/wtJEVQRSqSTKpRJi8Sb09K/A6NgxUIl8/sU9CIXCCIWjcFyXi0coFKSgg2GUUbEqCAWDFIIo5PN8b5I6hWKBgaAcSRNFeVMP6EhE40jEE2hvbcGmDedh66WX4m1XX80gE23p+gW6XMoXhBBfA/BfQoj874uRpwSPQhZCXOY9msCO/9iO7T//GVKZDDRFRSKaQEd7Bzq6u3FsfBLDIyMIRWIYGTuGqmVzAbFdB4oAVFVhYUL/WVRAWLYoUFWNmVQxTeRzWTiOA9uxmYWU4+hnSgn0ulCAtuZWDPT146+/8EVccelWL5y9tDj/vaEL+r0BeVLwpJQxAAXvwSSKhQwefPAB7H91P3r6+tHb0Q1d0dDXvwL/c/Qo9uzfj3LZRFt7J44dm0A6k0UsnmBtp6oCjuswAxlA6TLrHNth4Oh1YiixjQoJ5ch8Pse5rmpXUTbKcF2HJ4IAD2garrr8Snz5i19CX3c3XGJfTUKdimVSStKPfwvgibPhSZ4KvGsksINOcGwbL+1+Af/+0x/DES56enqAqgtd0RGJxfDMf+/CVHIOqhZEUyKBgwcPQToC4VgUkXCIKUGMUzSFWWfbVShQmX0q6UFN42JAB4HnMpBVuI6LYCgIwzBQLhbhSBe2dEHyUJXA5z93N957482QLr3mDWVBj30KJOs8ydcM5EnBc113B4S4hk7IZTP45S+fwKHhIViOzYk+rAaw6bxNSOYyeGbXr1EwDC4STU3NGBs9hmKphFA4jKAeZDFcrVoIBHRIAWiqhmqlygKb2Ug5qwaeSnpQ06AqCqxqlZmpBwIoF0lHxlEsl5i5uUwWt7/nVnziIx/lwlVfiZeb46SUZFbcu1xPclHwpJRhAGUaDz3ogQP78L3vfwcTMxMwrSpUF7jx+ndj1eqVePqZX+HFffsQicdZ61H7lkylMJdOMYsUUJiRYSBZJFMYRyJRVKs2rEqFK60n5Nx5JhIQxD46SFzrmsaMCgVDkEKiXC7DtR1sWLMW933tayywGTxKrmd4LMfcPRl410BiB40pl8vhse2P4YeP/AsK5QIza+uFl+KG66/HqwdfwY5nnsHEzDT6B1dCUTTMzsxicmqSGUJ5jVo0lhbBIBTKnhKIRGMMZD6fZ8nCxQOCiwKBWc9CApFYyEDSd4Ukk4OqZWHbxZfgs5/+DHp7e3jSuDKdxaMG5P0AfrKYJ7nop1HICohrCLxjkxP41rcfwt59exELh3HphRdhywUXIJ9JY9fzv8Hw2BhcIdDc2sZgvXLgZc5NUhEMFuevahXScaHrAaiqznqPWOk4NrMlFo8hwIK64jGodp2f/3zgWJIIcAV2bRdrV67C17/8FfT2dPOk0POeXfiOzwR7kkJ8Azhu7p7wWX7I+kn+yNgovnjPl5BMJXHL9e/G+oGVyObzeHbXsxgZH0OpaqKpuQVmpcqsy+Zy0AI6j4LAq7UGcB0Hjk2FwGXZous6FI1MVKC/v58BzeYKzCDWeoYnZzRdZ+Apb1Luo4Khairfj6r9k9u3QyUNUwNufkB1HiJoNYDfODvQ1oC8ZDHw3gRgJ5V/euDd+/biq/d+nUXtXR/9OFKTM3j54CvY+eLzCEWjMGyT2TI6Oga7YnHoEOv81QuWEL4YA4UfsdHhF11pc6jGYlEGtFp1vQKh61xpibWBQBB21WZdSSFdsS0EQkFUrSq3b/d++SvobGtboPfmf/E/V/HdLX+4jd9fU6xHTgDPcZwfKYpyu3+7R3/6E/zgn/8JAwMDLEpHDg9j6PBhZI0i9FAQQlUxPTON5NwcgnrAM0Up99QkP4WaMu8iE3DUEQBCpbaKcqDLlZguoJxJ4efpQU92JOJxvpVpmGhtaUOpYiIQDMCqWGwkvPemm3DZxZeiu6sLLc1NdXHmI1cfy1SE/F7ktQNJraCiKNcuAE9KSWXR4j6A86/Agw89hGef24nBwQEUcnkUczl2UchgEwEN6UwayWSSBa+uqgweVUg6iL3cPnE+IqAIVC+EONJq9PQkmtdxkECmLwZd8cKb3ia2NifaoIXCqAoJyzRgmxUkwhF0d3Tjyssvx+ZNG9HX243e3l40N9N6VS1r1BHr+IDPCMhrhRBPN4LHIev3Obl8HtufeBy7nv8tF4GZqWnOMxXTgBYKomyZmJic5IJAA4frAUc5iUKZQnI+2YOqpMtA8Pu0BsRZ3mMinUrXkM7zNRtdT+HL7R2FvFRhUTkJ6qDCGw8E0NvaDqtsIJlOQSgSAwN9eMub/xRXXL4NGzZsQjzRRCqIJdJ89qC5XNgMA/NrUn6iOWV+jJCLs+CM+ZCt3di0TDy2fTueefZZzGZSKJXLELaLYCAAqSoYHjvKLCGGejJEQlEVZowPHEsNVYUiyPnw2jJPj5GW88DlMBbEVm8Vjr7868l6onyoShXSkbBpEuCiWjER01Xc+I6346LNm2BVTUzPTGL/ywcwNj6JtevW4VOfvAvnn38B21c2ySZNZ5tsUUrWv7gAlYUg+iG7oPz4IevFWy3LC+Dhhx/GvgP7MTE9hUK5hFg0yibn9Nwsi2FikT9XXnR6IPosIvDqW6Z6K5/APP479cAqFwkfwHmxTOGr6IBLxQgwjCJaYnFs2bgO117zZgz2D6C9pQWWWUIuM4dcLoNAMIKu7n5E4y0olQ2EI1E0t7Zy10MAqjXZtKA6zwPoh7SfLxfkx+uEEE81gncZuUlsMhIIimDX99FHH8V/Pr0DmWwWRtVCa2c75mbnMDM7M5965wsCM8j7IL9D8BM/h0wNVGImC946g9MHjb57opnSYC05uh4bKWU60oZbreCtl1+J+++9j8Nx5MgRlHNFRMMhaEoVsKlVVFEoGNwjU0HSg2G0tncgmmiCHghCD4YQCIagB4PcX6s15nvsr+mcWsvoYeoDqTT5Ntc88I7j/L2iKJ8g8BiA2juP/PgR/OsPfwiF8pSmstc2Pj7OeY4+lMKLdBaHKiWXuubcB6t+Udxnmg+eD2BdTvfuWWvlqL2jcKXHcWhQigMNNtavWIUbr7sF77rhRrR2elKlVCghOTeDbGqODYhCoYhELIRIKIR0chb5bBaqriHR1ITm1nbEmloQiUahBYMIhMIshYTQQEnIT4rHnUJJz/GCounb/Gf1JJiUlHC8FaqGSv7zJ5/Ew995GKFYBOWKifGJCZRKJR6cP3AGgphRF3L1YJzqZ39tpJGt/jU8mSRfIKAGFJQKWXS0JpCbnEI0EMUn7/o03nHDOxGOx5BoorUPb9ap9ZuenoFr23CdKsqFPCIhHeVSAZlMEnDJ/tIRDsfQ3NKOSKyJXaBoLI5gJMYmx3xN4XzEnc8tQojHGsG7GMDuRvBoYK8ODeGv7r4bejiIqbkZz0WuATcfijVZR21VbTZqZqeX//w8uBiI82FKbrLr5cD5nFeTTFTFpWVh9WA/Nq5bjUhABcw8VMfC2vWbcf27bsDu/fuRaO1C/8BqtHd0sXMNlZSXgjJV42QS2XQGlmWgVMrBKOVQIYfGqSIaCSMcCnNlTjS1IBpPIByJIRhJQA9F6nP2fMjWAplkghey9YPzBzEyOopv/t0D2HNgH4pGCRa5KnWNOoWYwwLXW9D2Q5Wmjc7j+7C28xjhh63/4VwUaitzJ4Bc8wH5GtvBA/fdj6u2bcX0xBhmJo4iFgkiTLlL07k9zBWLmJycwlw6jf7+FTh/02b0DQwiFI4BildlDcPE7Nws0qkUCvksivkMdJVsMjYuoQjP/QmFImjp6EQ01oRINAE9HHkhHEnMhyw//4KQrUPPB4+MyG9883489osneJGGQGATk+SHQprMZYeXXveTOid/nnMPPNZyNVbOg+efT6yi8xuKiIe0YOnjujYioQju+MAduOSiC7Fm1Rp0dXawaMlmUigUctCkQNUoo2qZMKsWJiYnePJ6+/qgqBoSiWY2LyLxZkB4e2rKhoGZmRnMzc2hkM/ApmuNIiS1gJpAUNeg6xrC4ShiTU23nH/xm+dD1gevX0pJG25C9czzqx8NdufOnfjRoz/G9MwMcsUCcsU85z2y3HRq0gkAAqPWbglV4cpIuJGVzh2L4+kfZiF/co2JRNFakWLAa6xmUcsNio1yidZwyLZ3sXJwFTZt3IyLtlyILRdswcbzNiAWjUHaDgqZDEyKDspxxTzSqTkOSyoe9KmkNVta2tHd24eWtnaEYnFQNqWDNCyNj9al89kMqpYBTZAjVOH8qEun7brbPrxgO7FfMEg3rHNd90NCiLsAMJA++wgc8vXS6TQOvPIy9u7diyNHj2I2meS1hnwux+EcDIWg6B6YDmruB0WDc1zPMaIcxVTHjst8/p0cFZ4EAk7yStuK3l50tLVg3dqV0IMaxsePYeiVIRglA2+/9s9w2/tux+pVq6EpOoIBT35UXQeFbAblcglmuYRMepbZa5aKbKLSghL11SRdelYMoqOzm9eZKVaYkWWPkZOTE8jnCcjKoZtuvnVDY84+oQeRkmSoBySAjwghmhvXBSjMkuk070nZ/dJLGB4extT0NJLJOaRo1moyJhgMwZYOHP7yVs64pBDraj0vB7W/B6ZmZtIAVddFe1snPvbRj2DrJZegv6cLmXQSmdwcRkePYP/efWiKRbFh/fraEqRAZ3c/grFmOBBoSjSz80ymaSGfg1Es8iJWxSjBNAwENBV21UI+X2DhHI7G0N3Xz0DSbgeQKKccaZqYnp29c/Xg4A9OC15D0SBwVwK4XUr5OQJysYpJIUxAEiMPHT6EY+PjmJyeQjqTmdd+ECps1+ZFIJUsJ9trzfwCwywn/05VYZXKGOztxwfe/wHcdtttvJelalqQ1AArNqqOgWwyhUI2hbGRYRSKeTYaVq3ZgL5V6+BKhUoYgqEIR4OuUbEQxCCUKOUU8qiYZbhVC1XT5NeLhTwvDZBnSJ1IZ08Ph3iYQlsJtC222nbK7ncxIF3XJbvqM7Q3ebGVKiowQ0ND2L//AA4OHcSRoyNsWXGHYpoeQNQbC8mFwi80tOxIxif5hmFVx513fBC33vIetLQc3+fndT+uZ3uRfrMsGEYJxVIes3OTMI0yiiWD70M7s9q7ukHsV/QgVDUATQ+yL0gRQIwkIHPpJMrFEqqVChcLyyjDsiwuVGSNRWLxQ1e89boTQnZeqizGptO9VvuzgpuklPecbJM3LVwPHTzIeXJs7BiOjR9j03R8aoL7ZKrYnqr3ig0t9ERCYVz9prfgL//is4hHY8dFu/9A/nTzIpFXiGgDERkDxCiSH8nkLLLZFOtl2lVAua21tYOFMHuGvGoX8MwK12H5Qnk7l04hl04zK1VQlyOok7rzLe98zwkhe0bgNbCS/j7jJtd1GUjePtHQbVAeHB0bw/DwEZYRw0eP4OChIe5YMpkMbNqWoSq45cab8aE77uRc5q9nLJjIk8SKlzYl5zGrYsAoF1Es5pBOJZHNpHlBnbqHzq5utHd28VYQYiOZubRrwVMEEpWKiVw6g1wmg2I+B6Vqd2y9+urkYmRactiejon++7UtuO+WUn4BAO9hbgxvEtazs7OYmp7C9OwMDh0+jBd2/449wb/50j1YuWIFs4KLSuO6w5KfmKRNFUa5hFw2DdMsIZWcQzad5rCMxuPo7x9AR2cXgpEw52HKkwHOjwocV6JiGDOxWKz7ZGNf8qMsFbwGRpKdy0D6m8F9+eOfR/mL+lAKcdpFmojFKatByNoO+3rT8gyelvvbUp7lS8Uo10I7g3KpjFA4iN6+Fejo6kI4EmE7S1F0qIr+cSHEt/8o4DUASTtM3yal/Dzt96P35he2a8J40Yc8S+DV35tMWMss877qEm2RS86yG1Mo5BGPx9G3YgXa2jqQaGnujUY7TvpXTWcwl6+Fi941tX1/b3Mc5/Oqql7WyMbXfuflX0kTSAWC2rNiPsvb5si+KpRKM+97/5+fNGTPWsFY/iMfv0JKSdL+Cinl3UKIa87kXmd6LUknkj5kW1XKpY/3r1p/0pA9J8BrCG3aI3PVuQAkgBVCiPFTTcgfJWyXwhApJZW9ba7rfqp+HXkp157pObUdAfR3xQvW2Brve86C18BIajQv/wMCSSmEtpyd8nhdgLcIkJtd1/1wo4F7usEu4/3VQoiR053/ugOvAUjyf7ecTSCXGrLnXME43Uyf6v2aI77Bdd07yZNsNHeXce8lhewbCrwGRi4wd5cJ5JJC9g0L3iJArgZw66k8SbpGSmkKIWgfyimrrH//13XOW0Yo8qmSt2md3Nx1Xfc+VVU/t9T7/p8Cr4GRPpDvqPMkNwohhv4fvKUiUDuvZu7SP3Oy5H//4H8BidqPBJcmxKwAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1356,7 +1361,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1031" name="AutoShape 7" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAE8AAAA6CAYAAADx2wT0AAAWOklEQVR4Xu1caZAdV3X+bi9vf2/2fTSjXbIly5ssLyGAsQk24A2MXVBlXEUo9jL8ICGGIjhQgLGJU+UiDmUoqJAFjBMwssE4kVPYMgrYRtZmWyNlNJrR7PP2rfv16+6bOqdfj948jaQZS4DspF3jmXmvu1/f737nnO98944ElnlIKVuFEOllXvaGPF0sZ1RSyh4Ak1LKQ0KIrwJ4Sggxs5x7vJHOXS54HwPwD/UASClnhBD3APiZEGLqjQTO6cayLPBc150WQnSd7KZ1QP4CwDEhhDzdA7ye318yeJTrAKROO9gaXFLKrID4BhQ8AuDoGxHI5YD3QQD/2BCykFJCCMFf80cD3xqAHBVCuKedhNfBCUsGz3XdISHE+sXGZNs2JCR0TV98yATmcUaaUsgHFUX5HoDDr2cglwTeiSHrIyFwdPQoUqkUXOkyCxVFxZo1q9HS3HIikD6ItU+VkKaUr18glwoehyxD5koIRaBUymPPnj147rlfIxKOQGgaFFXFyJERlEtFDAwOYtP5m3DB5s3o6upCQNchFGVheNcIOR/lrvuQoijfBbBPCOGc65G7JPD8kCVm0UH57aknH8fevbsZyPb2LuSLZUihYHx8Aq+++io0TYOmKIhEIujo6MT5mzZh69at2LhxA4KBoMfSujzpA7gIkPuFEPa5CORpwZNSJgDkfODo+8T4KL7/ve8iEgmgpaUJAT2ITL6AWLwZQ4eGMXToMGzbgV2twjANmFaFWampKrPwyqv+BNu2bUN/fx+ioTCikQii4cgJ9cYH0nHdR3RF+RaA3wohqucKkEsB72Yp5U+9fKZgdmYaO3Y8hZd+9yIGBvvQlIijYllwpUDJqGByagYv7n4JwXCE859RNmDZFtcLVzowTROO4yIQCKC9sxNbtlyA8zZuRE9XNzrb2tHf04vuzjopSRcKr964kHBdec4AeVrwXNd9XghxmesSeAI7n/0VfrPrOTiuhc7OdgSDQZTKJioVC4WSgVQmi5f27EUgHIWmB2CaFqrVKgIBDRXLhEHguTY0XUOpVIZlV0HZoLm5CasGB7FyYCVWDa7EutWrsX7NWvT39UFVVCabL4v4Z1fS/54Wqvp1ALuEEMYfmpGnBK8+ZCnPkST5t0d/hGOjI4hEg4iEw8gXCkjOpRCORmG7wMT0DIZHjkIoGgKBMKyqzcyJRMLQNBW5fBZmxWTwioUiSqUiAsGgF96VCrO7KdGE3p4edHd0oqujAysHBnHeho1Yu2o1YrEYTxjlTVCFF4KvkVI+LYT4gwJ5OvBuBsAhS+CNjY7g8cd/wtJEVQRSqSTKpRJi8Sb09K/A6NgxUIl8/sU9CIXCCIWjcFyXi0coFKSgg2GUUbEqCAWDFIIo5PN8b5I6hWKBgaAcSRNFeVMP6EhE40jEE2hvbcGmDedh66WX4m1XX80gE23p+gW6XMoXhBBfA/BfQoj874uRpwSPQhZCXOY9msCO/9iO7T//GVKZDDRFRSKaQEd7Bzq6u3FsfBLDIyMIRWIYGTuGqmVzAbFdB4oAVFVhYUL/WVRAWLYoUFWNmVQxTeRzWTiOA9uxmYWU4+hnSgn0ulCAtuZWDPT146+/8EVccelWL5y9tDj/vaEL+r0BeVLwpJQxAAXvwSSKhQwefPAB7H91P3r6+tHb0Q1d0dDXvwL/c/Qo9uzfj3LZRFt7J44dm0A6k0UsnmBtp6oCjuswAxlA6TLrHNth4Oh1YiixjQoJ5ch8Pse5rmpXUTbKcF2HJ4IAD2garrr8Snz5i19CX3c3XGJfTUKdimVSStKPfwvgibPhSZ4KvGsksINOcGwbL+1+Af/+0x/DES56enqAqgtd0RGJxfDMf+/CVHIOqhZEUyKBgwcPQToC4VgUkXCIKUGMUzSFWWfbVShQmX0q6UFN42JAB4HnMpBVuI6LYCgIwzBQLhbhSBe2dEHyUJXA5z93N957482QLr3mDWVBj30KJOs8ydcM5EnBc113B4S4hk7IZTP45S+fwKHhIViOzYk+rAaw6bxNSOYyeGbXr1EwDC4STU3NGBs9hmKphFA4jKAeZDFcrVoIBHRIAWiqhmqlygKb2Ug5qwaeSnpQ06AqCqxqlZmpBwIoF0lHxlEsl5i5uUwWt7/nVnziIx/lwlVfiZeb46SUZFbcu1xPclHwpJRhAGUaDz3ogQP78L3vfwcTMxMwrSpUF7jx+ndj1eqVePqZX+HFffsQicdZ61H7lkylMJdOMYsUUJiRYSBZJFMYRyJRVKs2rEqFK60n5Nx5JhIQxD46SFzrmsaMCgVDkEKiXC7DtR1sWLMW933tayywGTxKrmd4LMfcPRl410BiB40pl8vhse2P4YeP/AsK5QIza+uFl+KG66/HqwdfwY5nnsHEzDT6B1dCUTTMzsxicmqSGUJ5jVo0lhbBIBTKnhKIRGMMZD6fZ8nCxQOCiwKBWc9CApFYyEDSd4Ukk4OqZWHbxZfgs5/+DHp7e3jSuDKdxaMG5P0AfrKYJ7nop1HICohrCLxjkxP41rcfwt59exELh3HphRdhywUXIJ9JY9fzv8Hw2BhcIdDc2sZgvXLgZc5NUhEMFuevahXScaHrAaiqznqPWOk4NrMlFo8hwIK64jGodp2f/3zgWJIIcAV2bRdrV67C17/8FfT2dPOk0POeXfiOzwR7kkJ8Azhu7p7wWX7I+kn+yNgovnjPl5BMJXHL9e/G+oGVyObzeHbXsxgZH0OpaqKpuQVmpcqsy+Zy0AI6j4LAq7UGcB0Hjk2FwGXZous6FI1MVKC/v58BzeYKzCDWeoYnZzRdZ+Apb1Luo4Khairfj6r9k9u3QyUNUwNufkB1HiJoNYDfODvQ1oC8ZDHw3gRgJ5V/euDd+/biq/d+nUXtXR/9OFKTM3j54CvY+eLzCEWjMGyT2TI6Oga7YnHoEOv81QuWEL4YA4UfsdHhF11pc6jGYlEGtFp1vQKh61xpibWBQBB21WZdSSFdsS0EQkFUrSq3b/d++SvobGtboPfmf/E/V/HdLX+4jd9fU6xHTgDPcZwfKYpyu3+7R3/6E/zgn/8JAwMDLEpHDg9j6PBhZI0i9FAQQlUxPTON5NwcgnrAM0Up99QkP4WaMu8iE3DUEQBCpbaKcqDLlZguoJxJ4efpQU92JOJxvpVpmGhtaUOpYiIQDMCqWGwkvPemm3DZxZeiu6sLLc1NdXHmI1cfy1SE/F7ktQNJraCiKNcuAE9KSWXR4j6A86/Agw89hGef24nBwQEUcnkUczl2UchgEwEN6UwayWSSBa+uqgweVUg6iL3cPnE+IqAIVC+EONJq9PQkmtdxkECmLwZd8cKb3ia2NifaoIXCqAoJyzRgmxUkwhF0d3Tjyssvx+ZNG9HX243e3l40N9N6VS1r1BHr+IDPCMhrhRBPN4LHIev3Obl8HtufeBy7nv8tF4GZqWnOMxXTgBYKomyZmJic5IJAA4frAUc5iUKZQnI+2YOqpMtA8Pu0BsRZ3mMinUrXkM7zNRtdT+HL7R2FvFRhUTkJ6qDCGw8E0NvaDqtsIJlOQSgSAwN9eMub/xRXXL4NGzZsQjzRRCqIJdJ89qC5XNgMA/NrUn6iOWV+jJCLs+CM+ZCt3di0TDy2fTueefZZzGZSKJXLELaLYCAAqSoYHjvKLCGGejJEQlEVZowPHEsNVYUiyPnw2jJPj5GW88DlMBbEVm8Vjr7868l6onyoShXSkbBpEuCiWjER01Xc+I6346LNm2BVTUzPTGL/ywcwNj6JtevW4VOfvAvnn38B21c2ySZNZ5tsUUrWv7gAlYUg+iG7oPz4IevFWy3LC+Dhhx/GvgP7MTE9hUK5hFg0yibn9Nwsi2FikT9XXnR6IPosIvDqW6Z6K5/APP479cAqFwkfwHmxTOGr6IBLxQgwjCJaYnFs2bgO117zZgz2D6C9pQWWWUIuM4dcLoNAMIKu7n5E4y0olQ2EI1E0t7Zy10MAqjXZtKA6zwPoh7SfLxfkx+uEEE81gncZuUlsMhIIimDX99FHH8V/Pr0DmWwWRtVCa2c75mbnMDM7M5965wsCM8j7IL9D8BM/h0wNVGImC946g9MHjb57opnSYC05uh4bKWU60oZbreCtl1+J+++9j8Nx5MgRlHNFRMMhaEoVsKlVVFEoGNwjU0HSg2G0tncgmmiCHghCD4YQCIagB4PcX6s15nvsr+mcWsvoYeoDqTT5Ntc88I7j/L2iKJ8g8BiA2juP/PgR/OsPfwiF8pSmstc2Pj7OeY4+lMKLdBaHKiWXuubcB6t+Udxnmg+eD2BdTvfuWWvlqL2jcKXHcWhQigMNNtavWIUbr7sF77rhRrR2elKlVCghOTeDbGqODYhCoYhELIRIKIR0chb5bBaqriHR1ITm1nbEmloQiUahBYMIhMIshYTQQEnIT4rHnUJJz/GCounb/Gf1JJiUlHC8FaqGSv7zJ5/Ew995GKFYBOWKifGJCZRKJR6cP3AGgphRF3L1YJzqZ39tpJGt/jU8mSRfIKAGFJQKWXS0JpCbnEI0EMUn7/o03nHDOxGOx5BoorUPb9ap9ZuenoFr23CdKsqFPCIhHeVSAZlMEnDJ/tIRDsfQ3NKOSKyJXaBoLI5gJMYmx3xN4XzEnc8tQojHGsG7GMDuRvBoYK8ODeGv7r4bejiIqbkZz0WuATcfijVZR21VbTZqZqeX//w8uBiI82FKbrLr5cD5nFeTTFTFpWVh9WA/Nq5bjUhABcw8VMfC2vWbcf27bsDu/fuRaO1C/8BqtHd0sXMNlZSXgjJV42QS2XQGlmWgVMrBKOVQIYfGqSIaCSMcCnNlTjS1IBpPIByJIRhJQA9F6nP2fMjWAplkghey9YPzBzEyOopv/t0D2HNgH4pGCRa5KnWNOoWYwwLXW9D2Q5Wmjc7j+7C28xjhh63/4VwUaitzJ4Bc8wH5GtvBA/fdj6u2bcX0xBhmJo4iFgkiTLlL07k9zBWLmJycwlw6jf7+FTh/02b0DQwiFI4BildlDcPE7Nws0qkUCvksivkMdJVsMjYuoQjP/QmFImjp6EQ01oRINAE9HHkhHEnMhyw//4KQrUPPB4+MyG9883489osneJGGQGATk+SHQprMZYeXXveTOid/nnMPPNZyNVbOg+efT6yi8xuKiIe0YOnjujYioQju+MAduOSiC7Fm1Rp0dXawaMlmUigUctCkQNUoo2qZMKsWJiYnePJ6+/qgqBoSiWY2LyLxZkB4e2rKhoGZmRnMzc2hkM/ApmuNIiS1gJpAUNeg6xrC4ShiTU23nH/xm+dD1gevX0pJG25C9czzqx8NdufOnfjRoz/G9MwMcsUCcsU85z2y3HRq0gkAAqPWbglV4cpIuJGVzh2L4+kfZiF/co2JRNFakWLAa6xmUcsNio1yidZwyLZ3sXJwFTZt3IyLtlyILRdswcbzNiAWjUHaDgqZDEyKDspxxTzSqTkOSyoe9KmkNVta2tHd24eWtnaEYnFQNqWDNCyNj9al89kMqpYBTZAjVOH8qEun7brbPrxgO7FfMEg3rHNd90NCiLsAMJA++wgc8vXS6TQOvPIy9u7diyNHj2I2meS1hnwux+EcDIWg6B6YDmruB0WDc1zPMaIcxVTHjst8/p0cFZ4EAk7yStuK3l50tLVg3dqV0IMaxsePYeiVIRglA2+/9s9w2/tux+pVq6EpOoIBT35UXQeFbAblcglmuYRMepbZa5aKbKLSghL11SRdelYMoqOzm9eZKVaYkWWPkZOTE8jnCcjKoZtuvnVDY84+oQeRkmSoBySAjwghmhvXBSjMkuk070nZ/dJLGB4extT0NJLJOaRo1moyJhgMwZYOHP7yVs64pBDraj0vB7W/B6ZmZtIAVddFe1snPvbRj2DrJZegv6cLmXQSmdwcRkePYP/efWiKRbFh/fraEqRAZ3c/grFmOBBoSjSz80ymaSGfg1Es8iJWxSjBNAwENBV21UI+X2DhHI7G0N3Xz0DSbgeQKKccaZqYnp29c/Xg4A9OC15D0SBwVwK4XUr5OQJysYpJIUxAEiMPHT6EY+PjmJyeQjqTmdd+ECps1+ZFIJUsJ9trzfwCwywn/05VYZXKGOztxwfe/wHcdtttvJelalqQ1AArNqqOgWwyhUI2hbGRYRSKeTYaVq3ZgL5V6+BKhUoYgqEIR4OuUbEQxCCUKOUU8qiYZbhVC1XT5NeLhTwvDZBnSJ1IZ08Ph3iYQlsJtC222nbK7ncxIF3XJbvqM7Q3ebGVKiowQ0ND2L//AA4OHcSRoyNsWXGHYpoeQNQbC8mFwi80tOxIxif5hmFVx513fBC33vIetLQc3+fndT+uZ3uRfrMsGEYJxVIes3OTMI0yiiWD70M7s9q7ukHsV/QgVDUATQ+yL0gRQIwkIHPpJMrFEqqVChcLyyjDsiwuVGSNRWLxQ1e89boTQnZeqizGptO9VvuzgpuklPecbJM3LVwPHTzIeXJs7BiOjR9j03R8aoL7ZKrYnqr3ig0t9ERCYVz9prfgL//is4hHY8dFu/9A/nTzIpFXiGgDERkDxCiSH8nkLLLZFOtl2lVAua21tYOFMHuGvGoX8MwK12H5Qnk7l04hl04zK1VQlyOok7rzLe98zwkhe0bgNbCS/j7jJtd1GUjePtHQbVAeHB0bw/DwEZYRw0eP4OChIe5YMpkMbNqWoSq45cab8aE77uRc5q9nLJjIk8SKlzYl5zGrYsAoF1Es5pBOJZHNpHlBnbqHzq5utHd28VYQYiOZubRrwVMEEpWKiVw6g1wmg2I+B6Vqd2y9+urkYmRactiejon++7UtuO+WUn4BAO9hbgxvEtazs7OYmp7C9OwMDh0+jBd2/449wb/50j1YuWIFs4KLSuO6w5KfmKRNFUa5hFw2DdMsIZWcQzad5rCMxuPo7x9AR2cXgpEw52HKkwHOjwocV6JiGDOxWKz7ZGNf8qMsFbwGRpKdy0D6m8F9+eOfR/mL+lAKcdpFmojFKatByNoO+3rT8gyelvvbUp7lS8Uo10I7g3KpjFA4iN6+Fejo6kI4EmE7S1F0qIr+cSHEt/8o4DUASTtM3yal/Dzt96P35he2a8J40Yc8S+DV35tMWMss877qEm2RS86yG1Mo5BGPx9G3YgXa2jqQaGnujUY7TvpXTWcwl6+Fi941tX1/b3Mc5/Oqql7WyMbXfuflX0kTSAWC2rNiPsvb5si+KpRKM+97/5+fNGTPWsFY/iMfv0JKSdL+Cinl3UKIa87kXmd6LUknkj5kW1XKpY/3r1p/0pA9J8BrCG3aI3PVuQAkgBVCiPFTTcgfJWyXwhApJZW9ba7rfqp+HXkp157pObUdAfR3xQvW2Brve86C18BIajQv/wMCSSmEtpyd8nhdgLcIkJtd1/1wo4F7usEu4/3VQoiR053/ugOvAUjyf7ecTSCXGrLnXME43Uyf6v2aI77Bdd07yZNsNHeXce8lhewbCrwGRi4wd5cJ5JJC9g0L3iJArgZw66k8SbpGSmkKIWgfyimrrH//13XOW0Yo8qmSt2md3Nx1Xfc+VVU/t9T7/p8Cr4GRPpDvqPMkNwohhv4fvKUiUDuvZu7SP3Oy5H//4H8BidqPBJcmxKwAAAAASUVORK5CYII="/>
+        <xdr:cNvPr id="1031" name="AutoShape 7" descr="data:image/png;base64,iVBORw0KGgoAAAANSUhEUgAAAE8AAAA6CAYAAADx2wT0AAAWOklEQVR4Xu1caZAdV3X+bi9vf2/2fTSjXbIly5ssLyGAsQk24A2MXVBlXEUo9jL8ICGGIjhQgLGJU+UiDmUoqJAFjBMwssE4kVPYMgrYRtZmWyNlNJrR7PP2rfv16+6bOqdfj948jaQZS4DspF3jmXmvu1/f737nnO98944ElnlIKVuFEOllXvaGPF0sZ1RSyh4Ak1LKQ0KIrwJ4Sggxs5x7vJHOXS54HwPwD/UASClnhBD3APiZEGLqjQTO6cayLPBc150WQnSd7KZ1QP4CwDEhhDzdA7ye318yeJTrAKROO9gaXFLKrID4BhQ8AuDoGxHI5YD3QQD/2BCykFJCCMFf80cD3xqAHBVCuKedhNfBCUsGz3XdISHE+sXGZNs2JCR0TV98yATmcUaaUsgHFUX5HoDDr2cglwTeiSHrIyFwdPQoUqkUXOkyCxVFxZo1q9HS3HIikD6ItU+VkKaUr18glwoehyxD5koIRaBUymPPnj147rlfIxKOQGgaFFXFyJERlEtFDAwOYtP5m3DB5s3o6upCQNchFGVheNcIOR/lrvuQoijfBbBPCOGc65G7JPD8kCVm0UH57aknH8fevbsZyPb2LuSLZUihYHx8Aq+++io0TYOmKIhEIujo6MT5mzZh69at2LhxA4KBoMfSujzpA7gIkPuFEPa5CORpwZNSJgDkfODo+8T4KL7/ve8iEgmgpaUJAT2ITL6AWLwZQ4eGMXToMGzbgV2twjANmFaFWampKrPwyqv+BNu2bUN/fx+ioTCikQii4cgJ9cYH0nHdR3RF+RaA3wohqucKkEsB72Yp5U+9fKZgdmYaO3Y8hZd+9yIGBvvQlIijYllwpUDJqGByagYv7n4JwXCE859RNmDZFtcLVzowTROO4yIQCKC9sxNbtlyA8zZuRE9XNzrb2tHf04vuzjopSRcKr964kHBdec4AeVrwXNd9XghxmesSeAI7n/0VfrPrOTiuhc7OdgSDQZTKJioVC4WSgVQmi5f27EUgHIWmB2CaFqrVKgIBDRXLhEHguTY0XUOpVIZlV0HZoLm5CasGB7FyYCVWDa7EutWrsX7NWvT39UFVVCabL4v4Z1fS/54Wqvp1ALuEEMYfmpGnBK8+ZCnPkST5t0d/hGOjI4hEg4iEw8gXCkjOpRCORmG7wMT0DIZHjkIoGgKBMKyqzcyJRMLQNBW5fBZmxWTwioUiSqUiAsGgF96VCrO7KdGE3p4edHd0oqujAysHBnHeho1Yu2o1YrEYTxjlTVCFF4KvkVI+LYT4gwJ5OvBuBsAhS+CNjY7g8cd/wtJEVQRSqSTKpRJi8Sb09K/A6NgxUIl8/sU9CIXCCIWjcFyXi0coFKSgg2GUUbEqCAWDFIIo5PN8b5I6hWKBgaAcSRNFeVMP6EhE40jEE2hvbcGmDedh66WX4m1XX80gE23p+gW6XMoXhBBfA/BfQoj874uRpwSPQhZCXOY9msCO/9iO7T//GVKZDDRFRSKaQEd7Bzq6u3FsfBLDIyMIRWIYGTuGqmVzAbFdB4oAVFVhYUL/WVRAWLYoUFWNmVQxTeRzWTiOA9uxmYWU4+hnSgn0ulCAtuZWDPT146+/8EVccelWL5y9tDj/vaEL+r0BeVLwpJQxAAXvwSSKhQwefPAB7H91P3r6+tHb0Q1d0dDXvwL/c/Qo9uzfj3LZRFt7J44dm0A6k0UsnmBtp6oCjuswAxlA6TLrHNth4Oh1YiixjQoJ5ch8Pse5rmpXUTbKcF2HJ4IAD2garrr8Snz5i19CX3c3XGJfTUKdimVSStKPfwvgibPhSZ4KvGsksINOcGwbL+1+Af/+0x/DES56enqAqgtd0RGJxfDMf+/CVHIOqhZEUyKBgwcPQToC4VgUkXCIKUGMUzSFWWfbVShQmX0q6UFN42JAB4HnMpBVuI6LYCgIwzBQLhbhSBe2dEHyUJXA5z93N957482QLr3mDWVBj30KJOs8ydcM5EnBc113B4S4hk7IZTP45S+fwKHhIViOzYk+rAaw6bxNSOYyeGbXr1EwDC4STU3NGBs9hmKphFA4jKAeZDFcrVoIBHRIAWiqhmqlygKb2Ug5qwaeSnpQ06AqCqxqlZmpBwIoF0lHxlEsl5i5uUwWt7/nVnziIx/lwlVfiZeb46SUZFbcu1xPclHwpJRhAGUaDz3ogQP78L3vfwcTMxMwrSpUF7jx+ndj1eqVePqZX+HFffsQicdZ61H7lkylMJdOMYsUUJiRYSBZJFMYRyJRVKs2rEqFK60n5Nx5JhIQxD46SFzrmsaMCgVDkEKiXC7DtR1sWLMW933tayywGTxKrmd4LMfcPRl410BiB40pl8vhse2P4YeP/AsK5QIza+uFl+KG66/HqwdfwY5nnsHEzDT6B1dCUTTMzsxicmqSGUJ5jVo0lhbBIBTKnhKIRGMMZD6fZ8nCxQOCiwKBWc9CApFYyEDSd4Ukk4OqZWHbxZfgs5/+DHp7e3jSuDKdxaMG5P0AfrKYJ7nop1HICohrCLxjkxP41rcfwt59exELh3HphRdhywUXIJ9JY9fzv8Hw2BhcIdDc2sZgvXLgZc5NUhEMFuevahXScaHrAaiqznqPWOk4NrMlFo8hwIK64jGodp2f/3zgWJIIcAV2bRdrV67C17/8FfT2dPOk0POeXfiOzwR7kkJ8Azhu7p7wWX7I+kn+yNgovnjPl5BMJXHL9e/G+oGVyObzeHbXsxgZH0OpaqKpuQVmpcqsy+Zy0AI6j4LAq7UGcB0Hjk2FwGXZous6FI1MVKC/v58BzeYKzCDWeoYnZzRdZ+Apb1Luo4Khairfj6r9k9u3QyUNUwNufkB1HiJoNYDfODvQ1oC8ZDHw3gRgJ5V/euDd+/biq/d+nUXtXR/9OFKTM3j54CvY+eLzCEWjMGyT2TI6Oga7YnHoEOv81QuWEL4YA4UfsdHhF11pc6jGYlEGtFp1vQKh61xpibWBQBB21WZdSSFdsS0EQkFUrSq3b/d++SvobGtboPfmf/E/V/HdLX+4jd9fU6xHTgDPcZwfKYpyu3+7R3/6E/zgn/8JAwMDLEpHDg9j6PBhZI0i9FAQQlUxPTON5NwcgnrAM0Up99QkP4WaMu8iE3DUEQBCpbaKcqDLlZguoJxJ4efpQU92JOJxvpVpmGhtaUOpYiIQDMCqWGwkvPemm3DZxZeiu6sLLc1NdXHmI1cfy1SE/F7ktQNJraCiKNcuAE9KSWXR4j6A86/Agw89hGef24nBwQEUcnkUczl2UchgEwEN6UwayWSSBa+uqgweVUg6iL3cPnE+IqAIVC+EONJq9PQkmtdxkECmLwZd8cKb3ia2NifaoIXCqAoJyzRgmxUkwhF0d3Tjyssvx+ZNG9HX243e3l40N9N6VS1r1BHr+IDPCMhrhRBPN4LHIev3Obl8HtufeBy7nv8tF4GZqWnOMxXTgBYKomyZmJic5IJAA4frAUc5iUKZQnI+2YOqpMtA8Pu0BsRZ3mMinUrXkM7zNRtdT+HL7R2FvFRhUTkJ6qDCGw8E0NvaDqtsIJlOQSgSAwN9eMub/xRXXL4NGzZsQjzRRCqIJdJ89qC5XNgMA/NrUn6iOWV+jJCLs+CM+ZCt3di0TDy2fTueefZZzGZSKJXLELaLYCAAqSoYHjvKLCGGejJEQlEVZowPHEsNVYUiyPnw2jJPj5GW88DlMBbEVm8Vjr7868l6onyoShXSkbBpEuCiWjER01Xc+I6346LNm2BVTUzPTGL/ywcwNj6JtevW4VOfvAvnn38B21c2ySZNZ5tsUUrWv7gAlYUg+iG7oPz4IevFWy3LC+Dhhx/GvgP7MTE9hUK5hFg0yibn9Nwsi2FikT9XXnR6IPosIvDqW6Z6K5/APP479cAqFwkfwHmxTOGr6IBLxQgwjCJaYnFs2bgO117zZgz2D6C9pQWWWUIuM4dcLoNAMIKu7n5E4y0olQ2EI1E0t7Zy10MAqjXZtKA6zwPoh7SfLxfkx+uEEE81gncZuUlsMhIIimDX99FHH8V/Pr0DmWwWRtVCa2c75mbnMDM7M5965wsCM8j7IL9D8BM/h0wNVGImC946g9MHjb57opnSYC05uh4bKWU60oZbreCtl1+J+++9j8Nx5MgRlHNFRMMhaEoVsKlVVFEoGNwjU0HSg2G0tncgmmiCHghCD4YQCIagB4PcX6s15nvsr+mcWsvoYeoDqTT5Ntc88I7j/L2iKJ8g8BiA2juP/PgR/OsPfwiF8pSmstc2Pj7OeY4+lMKLdBaHKiWXuubcB6t+Udxnmg+eD2BdTvfuWWvlqL2jcKXHcWhQigMNNtavWIUbr7sF77rhRrR2elKlVCghOTeDbGqODYhCoYhELIRIKIR0chb5bBaqriHR1ITm1nbEmloQiUahBYMIhMIshYTQQEnIT4rHnUJJz/GCounb/Gf1JJiUlHC8FaqGSv7zJ5/Ew995GKFYBOWKifGJCZRKJR6cP3AGgphRF3L1YJzqZ39tpJGt/jU8mSRfIKAGFJQKWXS0JpCbnEI0EMUn7/o03nHDOxGOx5BoorUPb9ap9ZuenoFr23CdKsqFPCIhHeVSAZlMEnDJ/tIRDsfQ3NKOSKyJXaBoLI5gJMYmx3xN4XzEnc8tQojHGsG7GMDuRvBoYK8ODeGv7r4bejiIqbkZz0WuATcfijVZR21VbTZqZqeX//w8uBiI82FKbrLr5cD5nFeTTFTFpWVh9WA/Nq5bjUhABcw8VMfC2vWbcf27bsDu/fuRaO1C/8BqtHd0sXMNlZSXgjJV42QS2XQGlmWgVMrBKOVQIYfGqSIaCSMcCnNlTjS1IBpPIByJIRhJQA9F6nP2fMjWAplkghey9YPzBzEyOopv/t0D2HNgH4pGCRa5KnWNOoWYwwLXW9D2Q5Wmjc7j+7C28xjhh63/4VwUaitzJ4Bc8wH5GtvBA/fdj6u2bcX0xBhmJo4iFgkiTLlL07k9zBWLmJycwlw6jf7+FTh/02b0DQwiFI4BildlDcPE7Nws0qkUCvksivkMdJVsMjYuoQjP/QmFImjp6EQ01oRINAE9HHkhHEnMhyw//4KQrUPPB4+MyG9883489osneJGGQGATk+SHQprMZYeXXveTOid/nnMPPNZyNVbOg+efT6yi8xuKiIe0YOnjujYioQju+MAduOSiC7Fm1Rp0dXawaMlmUigUctCkQNUoo2qZMKsWJiYnePJ6+/qgqBoSiWY2LyLxZkB4e2rKhoGZmRnMzc2hkM/ApmuNIiS1gJpAUNeg6xrC4ShiTU23nH/xm+dD1gevX0pJG25C9czzqx8NdufOnfjRoz/G9MwMcsUCcsU85z2y3HRq0gkAAqPWbglV4cpIuJGVzh2L4+kfZiF/co2JRNFakWLAa6xmUcsNio1yidZwyLZ3sXJwFTZt3IyLtlyILRdswcbzNiAWjUHaDgqZDEyKDspxxTzSqTkOSyoe9KmkNVta2tHd24eWtnaEYnFQNqWDNCyNj9al89kMqpYBTZAjVOH8qEun7brbPrxgO7FfMEg3rHNd90NCiLsAMJA++wgc8vXS6TQOvPIy9u7diyNHj2I2meS1hnwux+EcDIWg6B6YDmruB0WDc1zPMaIcxVTHjst8/p0cFZ4EAk7yStuK3l50tLVg3dqV0IMaxsePYeiVIRglA2+/9s9w2/tux+pVq6EpOoIBT35UXQeFbAblcglmuYRMepbZa5aKbKLSghL11SRdelYMoqOzm9eZKVaYkWWPkZOTE8jnCcjKoZtuvnVDY84+oQeRkmSoBySAjwghmhvXBSjMkuk070nZ/dJLGB4extT0NJLJOaRo1moyJhgMwZYOHP7yVs64pBDraj0vB7W/B6ZmZtIAVddFe1snPvbRj2DrJZegv6cLmXQSmdwcRkePYP/efWiKRbFh/fraEqRAZ3c/grFmOBBoSjSz80ymaSGfg1Es8iJWxSjBNAwENBV21UI+X2DhHI7G0N3Xz0DSbgeQKKccaZqYnp29c/Xg4A9OC15D0SBwVwK4XUr5OQJysYpJIUxAEiMPHT6EY+PjmJyeQjqTmdd+ECps1+ZFIJUsJ9trzfwCwywn/05VYZXKGOztxwfe/wHcdtttvJelalqQ1AArNqqOgWwyhUI2hbGRYRSKeTYaVq3ZgL5V6+BKhUoYgqEIR4OuUbEQxCCUKOUU8qiYZbhVC1XT5NeLhTwvDZBnSJ1IZ08Ph3iYQlsJtC222nbK7ncxIF3XJbvqM7Q3ebGVKiowQ0ND2L//AA4OHcSRoyNsWXGHYpoeQNQbC8mFwi80tOxIxif5hmFVx513fBC33vIetLQc3+fndT+uZ3uRfrMsGEYJxVIes3OTMI0yiiWD70M7s9q7ukHsV/QgVDUATQ+yL0gRQIwkIHPpJMrFEqqVChcLyyjDsiwuVGSNRWLxQ1e89boTQnZeqizGptO9VvuzgpuklPecbJM3LVwPHTzIeXJs7BiOjR9j03R8aoL7ZKrYnqr3ig0t9ERCYVz9prfgL//is4hHY8dFu/9A/nTzIpFXiGgDERkDxCiSH8nkLLLZFOtl2lVAua21tYOFMHuGvGoX8MwK12H5Qnk7l04hl04zK1VQlyOok7rzLe98zwkhe0bgNbCS/j7jJtd1GUjePtHQbVAeHB0bw/DwEZYRw0eP4OChIe5YMpkMbNqWoSq45cab8aE77uRc5q9nLJjIk8SKlzYl5zGrYsAoF1Es5pBOJZHNpHlBnbqHzq5utHd28VYQYiOZubRrwVMEEpWKiVw6g1wmg2I+B6Vqd2y9+urkYmRactiejon++7UtuO+WUn4BAO9hbgxvEtazs7OYmp7C9OwMDh0+jBd2/449wb/50j1YuWIFs4KLSuO6w5KfmKRNFUa5hFw2DdMsIZWcQzad5rCMxuPo7x9AR2cXgpEw52HKkwHOjwocV6JiGDOxWKz7ZGNf8qMsFbwGRpKdy0D6m8F9+eOfR/mL+lAKcdpFmojFKatByNoO+3rT8gyelvvbUp7lS8Uo10I7g3KpjFA4iN6+Fejo6kI4EmE7S1F0qIr+cSHEt/8o4DUASTtM3yal/Dzt96P35he2a8J40Yc8S+DV35tMWMss877qEm2RS86yG1Mo5BGPx9G3YgXa2jqQaGnujUY7TvpXTWcwl6+Fi941tX1/b3Mc5/Oqql7WyMbXfuflX0kTSAWC2rNiPsvb5si+KpRKM+97/5+fNGTPWsFY/iMfv0JKSdL+Cinl3UKIa87kXmd6LUknkj5kW1XKpY/3r1p/0pA9J8BrCG3aI3PVuQAkgBVCiPFTTcgfJWyXwhApJZW9ba7rfqp+HXkp157pObUdAfR3xQvW2Brve86C18BIajQv/wMCSSmEtpyd8nhdgLcIkJtd1/1wo4F7usEu4/3VQoiR053/ugOvAUjyf7ecTSCXGrLnXME43Uyf6v2aI77Bdd07yZNsNHeXce8lhewbCrwGRi4wd5cJ5JJC9g0L3iJArgZw66k8SbpGSmkKIWgfyimrrH//13XOW0Yo8qmSt2md3Nx1Xfc+VVU/t9T7/p8Cr4GRPpDvqPMkNwohhv4fvKUiUDuvZu7SP3Oy5H//4H8BidqPBJcmxKwAAAAASUVORK5CYII=">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007040000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -1398,7 +1409,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Grafik 20" descr="https://m.media-amazon.com/images/I/81wcyc6kJTL._AC_SL1500_.jpg"/>
+        <xdr:cNvPr id="21" name="Grafik 20" descr="https://m.media-amazon.com/images/I/81wcyc6kJTL._AC_SL1500_.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1453,7 +1470,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Grafik 21" descr="https://m.media-amazon.com/images/I/71LsPVW6UrL._SL1500_.jpg"/>
+        <xdr:cNvPr id="22" name="Grafik 21" descr="https://m.media-amazon.com/images/I/71LsPVW6UrL._SL1500_.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1506,7 +1529,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Grafik 22" descr="https://m.media-amazon.com/images/I/51uscjIsvaS._SL1300_.jpg"/>
+        <xdr:cNvPr id="23" name="Grafik 22" descr="https://m.media-amazon.com/images/I/51uscjIsvaS._SL1300_.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1561,7 +1590,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Grafik 23" descr="https://m.media-amazon.com/images/I/61ftRsJDaeL._SL1200_.jpg"/>
+        <xdr:cNvPr id="24" name="Grafik 23" descr="https://m.media-amazon.com/images/I/61ftRsJDaeL._SL1200_.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1616,7 +1651,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Grafik 24" descr="https://m.media-amazon.com/images/I/41hL-W4XFkL.jpg"/>
+        <xdr:cNvPr id="25" name="Grafik 24" descr="https://m.media-amazon.com/images/I/41hL-W4XFkL.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1671,7 +1712,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Grafik 19" descr="https://m.media-amazon.com/images/I/51tQ29MEo7L._AC_SL1001_.jpg"/>
+        <xdr:cNvPr id="20" name="Grafik 19" descr="https://m.media-amazon.com/images/I/51tQ29MEo7L._AC_SL1001_.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1983,29 +2030,29 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="C10" dT="2022-04-10T08:29:03.18" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{EEB4C3C9-5B3A-4FF6-8D62-98EAC94BBB28}">
+  <threadedComment ref="C11" dT="2022-04-10T08:29:03.18" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{EEB4C3C9-5B3A-4FF6-8D62-98EAC94BBB28}">
     <text>die drossel ist nur für gase 
 oder?</text>
   </threadedComment>
-  <threadedComment ref="B13" dT="2022-04-10T08:26:53.01" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{C34326B4-C63B-4E13-8782-623F009A2D52}">
+  <threadedComment ref="B14" dT="2022-04-10T08:26:53.01" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{C34326B4-C63B-4E13-8782-623F009A2D52}">
     <text>keine  led bei reichelt gefunden welche rot grün und gelb kann, nur rot grün und blau
 habe daher eine rot grüne led genommen</text>
   </threadedComment>
-  <threadedComment ref="B13" dT="2022-04-10T08:27:28.12" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{2E4CCA60-BDCB-4578-A481-561D27CC65C6}" parentId="{C34326B4-C63B-4E13-8782-623F009A2D52}">
+  <threadedComment ref="B14" dT="2022-04-10T08:27:28.12" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{2E4CCA60-BDCB-4578-A481-561D27CC65C6}" parentId="{C34326B4-C63B-4E13-8782-623F009A2D52}">
     <text>3mm ok? oder 8 mm</text>
   </threadedComment>
-  <threadedComment ref="B27" dT="2022-04-10T08:30:12.73" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{52CE70CF-02CF-4D8B-BD39-8D78ABB7A70F}">
+  <threadedComment ref="B26" dT="2022-04-10T08:30:12.73" personId="{5A60D579-C466-4F51-84C8-58A0C5D82C8F}" id="{52CE70CF-02CF-4D8B-BD39-8D78ABB7A70F}">
     <text>abhänig von durchmesser drossel. oder kann man Strohhalme oder so nutzen</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Z1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2264,7 +2311,9 @@
       <c r="C8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="14"/>
+      <c r="D8" s="14" t="s">
+        <v>128</v>
+      </c>
       <c r="F8" s="13">
         <v>3</v>
       </c>
@@ -4652,22 +4701,22 @@
     <mergeCell ref="B3:P3"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="O6" r:id="rId1"/>
-    <hyperlink ref="O7" r:id="rId2"/>
-    <hyperlink ref="O9" r:id="rId3"/>
-    <hyperlink ref="O10" r:id="rId4"/>
-    <hyperlink ref="O11" r:id="rId5"/>
-    <hyperlink ref="O18" r:id="rId6"/>
-    <hyperlink ref="O14" display="https://www.amazon.de/Lumetheus-colour-pieces-green-light/dp/B07RPBJQQ5/ref=sr_1_31_sspa?crid=1PF9WV779F12H&amp;keywords=RGB%2Bled%2Btht&amp;qid=1650791180&amp;sprefix=rgb%2Bled%2Btht%2Caps%2C71&amp;sr=8-31-spons&amp;smid=A1PDY8TKGRFX07&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNkFFM"/>
-    <hyperlink ref="O16" r:id="rId7"/>
-    <hyperlink ref="O13" r:id="rId8"/>
-    <hyperlink ref="O5" r:id="rId9"/>
-    <hyperlink ref="O12" r:id="rId10"/>
-    <hyperlink ref="O17" r:id="rId11"/>
-    <hyperlink ref="O25" r:id="rId12"/>
-    <hyperlink ref="O27" r:id="rId13"/>
-    <hyperlink ref="O15" r:id="rId14"/>
-    <hyperlink ref="O8" r:id="rId15"/>
+    <hyperlink ref="O6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="O7" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="O9" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="O10" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="O11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="O18" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="O14" display="https://www.amazon.de/Lumetheus-colour-pieces-green-light/dp/B07RPBJQQ5/ref=sr_1_31_sspa?crid=1PF9WV779F12H&amp;keywords=RGB%2Bled%2Btht&amp;qid=1650791180&amp;sprefix=rgb%2Bled%2Btht%2Caps%2C71&amp;sr=8-31-spons&amp;smid=A1PDY8TKGRFX07&amp;spLa=ZW5jcnlwdGVkUXVhbGlmaWVyPUExNkFFM" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="O16" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="O13" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="O5" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="O12" r:id="rId10" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="O17" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="O25" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="O27" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="O15" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="O8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId16"/>
@@ -4683,15 +4732,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100F1915B907800E7428146EE77CA80028A" ma:contentTypeVersion="7" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="488e92fde5c069052afb709452fe15a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3c817212-2bbb-45d4-8752-c1fcc990f980" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3041a8468226d021289f6af5fe80d3a7" ns2:_="">
     <xsd:import namespace="3c817212-2bbb-45d4-8752-c1fcc990f980"/>
@@ -4855,6 +4895,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F768134B-4845-44FE-9391-04162412FBD1}">
   <ds:schemaRefs>
@@ -4865,14 +4914,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CEB7BA4-5526-422F-A109-D609BD324BDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43D3CBF0-29A3-49D1-8EDA-10629495F019}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4888,4 +4929,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CEB7BA4-5526-422F-A109-D609BD324BDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>